--- a/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
+++ b/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="8604"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ответы на форму (1)" sheetId="1" r:id="rId4"/>
+    <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="289">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -451,6 +467,9 @@
     <t>Cyanistes caeruleus, Bos taurus, Nomadacris septemfasciata, Saccharomyces cerevisiae, Elephas maximus, Loxodonta africana, Anas platyrhynchos</t>
   </si>
   <si>
+    <t>st131951</t>
+  </si>
+  <si>
     <t>Cyanistes caeruleus, Elephas maximus, Nomadacris septemfasciata, Loxodonta africana</t>
   </si>
   <si>
@@ -548,6 +567,9 @@
   </si>
   <si>
     <t>Saccharomyces cerevisiae, Cyanistes caeruleus, Nomadacris septemfasciata, Bos taurus</t>
+  </si>
+  <si>
+    <t>st129151</t>
   </si>
   <si>
     <t>Loxodonta africana, Elephas maximus, Nomadacris septemfasciata</t>
@@ -877,34 +899,384 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0&quot; / 4&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="181" formatCode="0&quot; / 4&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border/>
+  <borders count="21">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -918,6 +1290,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -932,6 +1305,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -946,6 +1320,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -960,6 +1335,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -974,6 +1350,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -988,6 +1365,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1002,6 +1380,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1016,6 +1395,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1030,6 +1410,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1044,6 +1425,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1058,6 +1440,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1072,140 +1455,509 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Ответы на форму (1)-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{5CEA28C5-4271-4118-BB3A-1C87AF4A4661}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G129" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:G129">
   <tableColumns count="7">
-    <tableColumn name="Отметка времени" id="1"/>
-    <tableColumn name="Баллы" id="2"/>
-    <tableColumn name="Найдите себя в списке" id="3"/>
-    <tableColumn name="К какому типу симфизиологических связей можно отнести взаимоотношения популяции трихинеллы и популяции медведей" id="4"/>
-    <tableColumn name="С популяциями каких видов вступает в форические симфизиологические связи  медоносная пчела (Apis mellifera)" id="5"/>
-    <tableColumn name="Какие из перечисленных организмов вступают в прямые топические симфизиологическе связи с популяцией человека?" id="6"/>
-    <tableColumn name="Какие из перечисленных органзмов могут вступать в косвенные трофические связи с популяцией человека?" id="7"/>
+    <tableColumn id="1" name="Отметка времени" dataDxfId="0"/>
+    <tableColumn id="2" name="Баллы" dataDxfId="1"/>
+    <tableColumn id="3" name="Найдите себя в списке" dataDxfId="2"/>
+    <tableColumn id="4" name="К какому типу симфизиологических связей можно отнести взаимоотношения популяции трихинеллы и популяции медведей" dataDxfId="3"/>
+    <tableColumn id="5" name="С популяциями каких видов вступает в форические симфизиологические связи  медоносная пчела (Apis mellifera)" dataDxfId="4"/>
+    <tableColumn id="6" name="Какие из перечисленных организмов вступают в прямые топические симфизиологическе связи с популяцией человека?" dataDxfId="5"/>
+    <tableColumn id="7" name="Какие из перечисленных органзмов могут вступать в косвенные трофические связи с популяцией человека?" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="Ответы на форму (1)-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Ответы на форму (1)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1395,30 +2147,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
-    <col customWidth="1" min="4" max="7" width="37.63"/>
-    <col customWidth="1" min="8" max="13" width="18.88"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="22.8796296296296" customWidth="1"/>
+    <col min="4" max="7" width="37.6296296296296" customWidth="1"/>
+    <col min="8" max="13" width="18.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,12 +2196,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="4">
-        <v>45913.71612783565</v>
+        <v>45913.7161278357</v>
       </c>
       <c r="B2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -1464,12 +2219,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="8">
-        <v>45913.72062262731</v>
+        <v>45913.7206226273</v>
       </c>
       <c r="B3" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -1487,12 +2242,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="4">
-        <v>45913.88040734954</v>
+        <v>45913.8804073495</v>
       </c>
       <c r="B4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -1510,12 +2265,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="8">
-        <v>45913.96682224537</v>
+        <v>45913.9668222454</v>
       </c>
       <c r="B5" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -1533,12 +2288,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4">
-        <v>45914.55264527778</v>
+        <v>45914.5526452778</v>
       </c>
       <c r="B6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
@@ -1556,12 +2311,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="8">
-        <v>45914.78777865741</v>
+        <v>45914.7877786574</v>
       </c>
       <c r="B7" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
@@ -1579,12 +2334,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="4">
-        <v>45914.79304255787</v>
+        <v>45914.7930425579</v>
       </c>
       <c r="B8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
@@ -1602,12 +2357,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="8">
-        <v>45914.81531731482</v>
+        <v>45914.8153173148</v>
       </c>
       <c r="B9" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>37</v>
@@ -1625,12 +2380,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4">
-        <v>45914.92542305555</v>
+        <v>45914.9254230556</v>
       </c>
       <c r="B10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>41</v>
@@ -1648,12 +2403,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="8">
-        <v>45914.92595071759</v>
+        <v>45914.9259507176</v>
       </c>
       <c r="B11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>44</v>
@@ -1671,12 +2426,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4">
-        <v>45914.95605209491</v>
+        <v>45914.9560520949</v>
       </c>
       <c r="B12" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>47</v>
@@ -1694,12 +2449,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="8">
-        <v>45915.479902708335</v>
+        <v>45915.4799027083</v>
       </c>
       <c r="B13" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>50</v>
@@ -1717,12 +2472,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4">
-        <v>45915.480048020836</v>
+        <v>45915.4800480208</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>52</v>
@@ -1740,12 +2495,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="8">
-        <v>45915.50284328704</v>
+        <v>45915.502843287</v>
       </c>
       <c r="B15" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>53</v>
@@ -1763,12 +2518,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4">
-        <v>45915.547884155094</v>
+        <v>45915.5478841551</v>
       </c>
       <c r="B16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>55</v>
@@ -1786,12 +2541,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="8">
-        <v>45915.547975856476</v>
+        <v>45915.5479758565</v>
       </c>
       <c r="B17" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>58</v>
@@ -1809,12 +2564,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="4">
-        <v>45915.548178599536</v>
+        <v>45915.5481785995</v>
       </c>
       <c r="B18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>60</v>
@@ -1832,12 +2587,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="8">
-        <v>45915.548484178245</v>
+        <v>45915.5484841782</v>
       </c>
       <c r="B19" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>63</v>
@@ -1855,12 +2610,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="4">
-        <v>45916.58419028935</v>
+        <v>45916.5841902894</v>
       </c>
       <c r="B20" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>68</v>
@@ -1878,12 +2633,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="8">
-        <v>45916.58450909722</v>
+        <v>45916.5845090972</v>
       </c>
       <c r="B21" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>70</v>
@@ -1901,12 +2656,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="4">
-        <v>45916.868793842594</v>
+        <v>45916.8687938426</v>
       </c>
       <c r="B22" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>72</v>
@@ -1924,12 +2679,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="8">
-        <v>45916.931827418986</v>
+        <v>45916.931827419</v>
       </c>
       <c r="B23" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>76</v>
@@ -1947,12 +2702,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="4">
-        <v>45917.005281053236</v>
+        <v>45917.0052810532</v>
       </c>
       <c r="B24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>79</v>
@@ -1970,12 +2725,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="8">
-        <v>45917.010967546295</v>
+        <v>45917.0109675463</v>
       </c>
       <c r="B25" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>82</v>
@@ -1993,12 +2748,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="4">
         <v>45917.3459040625</v>
       </c>
       <c r="B26" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>85</v>
@@ -2016,12 +2771,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="8">
-        <v>45917.412556157404</v>
+        <v>45917.4125561574</v>
       </c>
       <c r="B27" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>86</v>
@@ -2039,12 +2794,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="4">
         <v>45917.482895</v>
       </c>
       <c r="B28" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>87</v>
@@ -2062,12 +2817,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="8">
-        <v>45917.483262939815</v>
+        <v>45917.4832629398</v>
       </c>
       <c r="B29" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>89</v>
@@ -2085,12 +2840,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="4">
-        <v>45917.48328997685</v>
+        <v>45917.4832899769</v>
       </c>
       <c r="B30" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>91</v>
@@ -2108,12 +2863,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="8">
-        <v>45917.49278966435</v>
+        <v>45917.4927896643</v>
       </c>
       <c r="B31" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>93</v>
@@ -2131,12 +2886,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="4">
-        <v>45917.60873270834</v>
+        <v>45917.6087327083</v>
       </c>
       <c r="B32" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>94</v>
@@ -2154,12 +2909,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="8">
-        <v>45917.611207939815</v>
+        <v>45917.6112079398</v>
       </c>
       <c r="B33" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>96</v>
@@ -2177,12 +2932,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="4">
-        <v>45917.664649872684</v>
+        <v>45917.6646498727</v>
       </c>
       <c r="B34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>97</v>
@@ -2200,12 +2955,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="8">
-        <v>45917.70703935185</v>
+        <v>45917.7070393519</v>
       </c>
       <c r="B35" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>102</v>
@@ -2223,12 +2978,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="4">
-        <v>45917.707729305555</v>
+        <v>45917.7077293056</v>
       </c>
       <c r="B36" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>103</v>
@@ -2246,12 +3001,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="8">
-        <v>45917.80104162037</v>
+        <v>45917.8010416204</v>
       </c>
       <c r="B37" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>104</v>
@@ -2269,12 +3024,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="4">
-        <v>45917.80105446759</v>
+        <v>45917.8010544676</v>
       </c>
       <c r="B38" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>107</v>
@@ -2292,12 +3047,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="8">
-        <v>45917.80190446759</v>
+        <v>45917.8019044676</v>
       </c>
       <c r="B39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>109</v>
@@ -2315,12 +3070,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="4">
-        <v>45917.813915763894</v>
+        <v>45917.8139157639</v>
       </c>
       <c r="B40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>114</v>
@@ -2338,12 +3093,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="8">
-        <v>45917.82387451389</v>
+        <v>45917.8238745139</v>
       </c>
       <c r="B41" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>117</v>
@@ -2361,12 +3116,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="4">
-        <v>45917.82389341435</v>
+        <v>45917.8238934144</v>
       </c>
       <c r="B42" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>119</v>
@@ -2384,12 +3139,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="8">
-        <v>45917.83506315972</v>
+        <v>45917.8350631597</v>
       </c>
       <c r="B43" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>120</v>
@@ -2407,12 +3162,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="4">
-        <v>45917.83513178241</v>
+        <v>45917.8351317824</v>
       </c>
       <c r="B44" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>121</v>
@@ -2430,12 +3185,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="8">
-        <v>45917.835606064815</v>
+        <v>45917.8356060648</v>
       </c>
       <c r="B45" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>122</v>
@@ -2453,12 +3208,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="4">
-        <v>45917.83608469907</v>
+        <v>45917.8360846991</v>
       </c>
       <c r="B46" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>123</v>
@@ -2476,12 +3231,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="8">
-        <v>45917.836785590276</v>
+        <v>45917.8367855903</v>
       </c>
       <c r="B47" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>125</v>
@@ -2499,12 +3254,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="4">
-        <v>45917.879818078705</v>
+        <v>45917.8798180787</v>
       </c>
       <c r="B48" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>127</v>
@@ -2522,12 +3277,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="8">
-        <v>45917.90977806713</v>
+        <v>45917.9097780671</v>
       </c>
       <c r="B49" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>129</v>
@@ -2545,12 +3300,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="4">
-        <v>45918.55595263889</v>
+        <v>45918.5559526389</v>
       </c>
       <c r="B50" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>132</v>
@@ -2568,12 +3323,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="8">
-        <v>45918.59007866898</v>
+        <v>45918.590078669</v>
       </c>
       <c r="B51" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>135</v>
@@ -2591,12 +3346,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="4">
-        <v>45918.61810743056</v>
+        <v>45918.6181074306</v>
       </c>
       <c r="B52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>136</v>
@@ -2614,12 +3369,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="8">
-        <v>45918.65745005787</v>
+        <v>45918.6574500579</v>
       </c>
       <c r="B53" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>140</v>
@@ -2637,12 +3392,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="4">
-        <v>45918.77662363426</v>
+        <v>45918.7766236343</v>
       </c>
       <c r="B54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>142</v>
@@ -2660,12 +3415,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="8">
-        <v>45918.781863530094</v>
+        <v>45918.7818635301</v>
       </c>
       <c r="B55" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>144</v>
@@ -2683,14 +3438,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="4">
-        <v>45918.800953321756</v>
+        <v>45918.8009533218</v>
       </c>
       <c r="B56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C56" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D56" s="6" t="s">
         <v>18</v>
       </c>
@@ -2701,18 +3458,18 @@
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="8">
-        <v>45918.85864618055</v>
+        <v>45918.8586461806</v>
       </c>
       <c r="B57" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>48</v>
@@ -2727,15 +3484,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="4">
-        <v>45918.936476585644</v>
+        <v>45918.9364765856</v>
       </c>
       <c r="B58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>18</v>
@@ -2747,18 +3504,18 @@
         <v>51</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="8">
-        <v>45918.94180515046</v>
+        <v>45918.9418051505</v>
       </c>
       <c r="B59" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>18</v>
@@ -2767,21 +3524,21 @@
         <v>14</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
       <c r="A60" s="4">
-        <v>45918.94181055555</v>
+        <v>45918.9418105556</v>
       </c>
       <c r="B60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>18</v>
@@ -2790,21 +3547,21 @@
         <v>14</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="8">
-        <v>45919.545456782405</v>
+        <v>45919.5454567824</v>
       </c>
       <c r="B61" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>8</v>
@@ -2813,21 +3570,21 @@
         <v>9</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="4">
         <v>45919.6064075926</v>
       </c>
       <c r="B62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>18</v>
@@ -2839,18 +3596,18 @@
         <v>66</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="8">
-        <v>45919.643125497685</v>
+        <v>45919.6431254977</v>
       </c>
       <c r="B63" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>45</v>
@@ -2865,35 +3622,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="4">
-        <v>45919.70780246527</v>
+        <v>45919.7078024653</v>
       </c>
       <c r="B64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="8">
-        <v>45919.752087245375</v>
+        <v>45919.7520872454</v>
       </c>
       <c r="B65" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>121</v>
@@ -2911,15 +3668,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="4">
-        <v>45919.77927159722</v>
+        <v>45919.7792715972</v>
       </c>
       <c r="B66" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>54</v>
@@ -2934,41 +3691,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:7">
       <c r="A67" s="8">
-        <v>45919.78644347222</v>
+        <v>45919.7864434722</v>
       </c>
       <c r="B67" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>112</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="4">
-        <v>45919.820494178246</v>
+        <v>45919.8204941782</v>
       </c>
       <c r="B68" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>39</v>
@@ -2980,15 +3737,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="8">
-        <v>45919.84636200231</v>
+        <v>45919.8463620023</v>
       </c>
       <c r="B69" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>26</v>
@@ -3003,15 +3760,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:7">
       <c r="A70" s="4">
-        <v>45919.84636289351</v>
+        <v>45919.8463628935</v>
       </c>
       <c r="B70" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>118</v>
@@ -3026,15 +3783,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="1:7">
       <c r="A71" s="8">
-        <v>45919.870153275464</v>
+        <v>45919.8701532755</v>
       </c>
       <c r="B71" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>8</v>
@@ -3049,15 +3806,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:7">
       <c r="A72" s="4">
-        <v>45919.89160398148</v>
+        <v>45919.8916039815</v>
       </c>
       <c r="B72" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>18</v>
@@ -3072,18 +3829,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="1:7">
       <c r="A73" s="8">
-        <v>45919.931422905094</v>
+        <v>45919.9314229051</v>
       </c>
       <c r="B73" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>14</v>
@@ -3092,17 +3849,19 @@
         <v>80</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="4">
-        <v>45919.96294041666</v>
+        <v>45919.9629404167</v>
       </c>
       <c r="B74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C74" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>18</v>
       </c>
@@ -3113,17 +3872,17 @@
         <v>51</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="8">
-        <v>45920.13603471065</v>
+        <v>45920.1360347107</v>
       </c>
       <c r="B75" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
         <v>77</v>
       </c>
@@ -3137,41 +3896,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:7">
       <c r="A76" s="4">
-        <v>45920.27540534722</v>
+        <v>45920.2754053472</v>
       </c>
       <c r="B76" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="8">
-        <v>45920.47791248842</v>
+        <v>45920.4779124884</v>
       </c>
       <c r="B77" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>78</v>
@@ -3183,18 +3942,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="4">
-        <v>45920.54672533565</v>
+        <v>45920.5467253356</v>
       </c>
       <c r="B78" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>78</v>
@@ -3203,18 +3962,18 @@
         <v>80</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
       <c r="A79" s="8">
-        <v>45920.592703622686</v>
+        <v>45920.5927036227</v>
       </c>
       <c r="B79" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>69</v>
@@ -3229,15 +3988,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:7">
       <c r="A80" s="4">
-        <v>45920.605874120374</v>
+        <v>45920.6058741204</v>
       </c>
       <c r="B80" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>98</v>
@@ -3246,21 +4005,21 @@
         <v>27</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
       <c r="A81" s="8">
-        <v>45920.64365064815</v>
+        <v>45920.6436506481</v>
       </c>
       <c r="B81" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>90</v>
@@ -3275,18 +4034,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="1:7">
       <c r="A82" s="4">
-        <v>45920.653884467596</v>
+        <v>45920.6538844676</v>
       </c>
       <c r="B82" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>35</v>
@@ -3298,18 +4057,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="1:7">
       <c r="A83" s="8">
-        <v>45920.670838969905</v>
+        <v>45920.6708389699</v>
       </c>
       <c r="B83" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>31</v>
@@ -3321,18 +4080,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="1:7">
       <c r="A84" s="4">
-        <v>45920.670866608794</v>
+        <v>45920.6708666088</v>
       </c>
       <c r="B84" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>39</v>
@@ -3344,18 +4103,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="1:7">
       <c r="A85" s="8">
-        <v>45920.717089328704</v>
+        <v>45920.7170893287</v>
       </c>
       <c r="B85" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -3367,15 +4126,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="1:7">
       <c r="A86" s="4">
-        <v>45920.75168944444</v>
+        <v>45920.7516894444</v>
       </c>
       <c r="B86" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>8</v>
@@ -3390,18 +4149,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:7">
       <c r="A87" s="8">
-        <v>45920.754171030094</v>
+        <v>45920.7541710301</v>
       </c>
       <c r="B87" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>27</v>
@@ -3410,18 +4169,18 @@
         <v>84</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
       <c r="A88" s="4">
-        <v>45920.757396886576</v>
+        <v>45920.7573968866</v>
       </c>
       <c r="B88" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>83</v>
@@ -3436,16 +4195,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:7">
       <c r="A89" s="8">
-        <v>45920.76927168982</v>
+        <v>45920.7692716898</v>
       </c>
       <c r="B89" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>19</v>
@@ -3454,21 +4213,21 @@
         <v>80</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
       <c r="A90" s="4">
-        <v>45920.77028131945</v>
+        <v>45920.7702813194</v>
       </c>
       <c r="B90" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>19</v>
@@ -3477,18 +4236,18 @@
         <v>20</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
       <c r="A91" s="8">
-        <v>45920.77507533565</v>
+        <v>45920.7750753357</v>
       </c>
       <c r="B91" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>18</v>
@@ -3497,21 +4256,21 @@
         <v>137</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
       <c r="A92" s="4">
-        <v>45920.81413042824</v>
+        <v>45920.8141304282</v>
       </c>
       <c r="B92" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>26</v>
@@ -3526,18 +4285,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:7">
       <c r="A93" s="8">
-        <v>45920.82952151621</v>
+        <v>45920.8295215162</v>
       </c>
       <c r="B93" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>39</v>
@@ -3549,15 +4308,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:7">
       <c r="A94" s="4">
-        <v>45920.83931394676</v>
+        <v>45920.8393139468</v>
       </c>
       <c r="B94" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>26</v>
@@ -3572,15 +4331,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="8">
-        <v>45920.84518037037</v>
+        <v>45920.8451803704</v>
       </c>
       <c r="B95" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>18</v>
@@ -3592,21 +4351,21 @@
         <v>20</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="4">
-        <v>45920.852259444444</v>
+        <v>45920.8522594444</v>
       </c>
       <c r="B96" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>19</v>
@@ -3615,21 +4374,21 @@
         <v>51</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="8">
         <v>45920.8565328125</v>
       </c>
       <c r="B97" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>19</v>
@@ -3638,21 +4397,21 @@
         <v>84</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="4">
-        <v>45920.860451053246</v>
+        <v>45920.8604510532</v>
       </c>
       <c r="B98" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3661,18 +4420,18 @@
         <v>100</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
       <c r="A99" s="8">
-        <v>45920.87418702546</v>
+        <v>45920.8741870255</v>
       </c>
       <c r="B99" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>38</v>
@@ -3684,18 +4443,18 @@
         <v>15</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
       <c r="A100" s="4">
-        <v>45920.876694074075</v>
+        <v>45920.8766940741</v>
       </c>
       <c r="B100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>18</v>
@@ -3710,38 +4469,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:7">
       <c r="A101" s="8">
-        <v>45920.88249913194</v>
+        <v>45920.8824991319</v>
       </c>
       <c r="B101" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:7">
       <c r="A102" s="4">
-        <v>45920.885027847224</v>
+        <v>45920.8850278472</v>
       </c>
       <c r="B102" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>105</v>
@@ -3753,44 +4512,44 @@
         <v>15</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
       <c r="A103" s="8">
-        <v>45920.88720672454</v>
+        <v>45920.8872067245</v>
       </c>
       <c r="B103" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
       <c r="A104" s="4">
-        <v>45920.88739395833</v>
+        <v>45920.8873939583</v>
       </c>
       <c r="B104" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>78</v>
@@ -3799,18 +4558,18 @@
         <v>36</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
       <c r="A105" s="8">
-        <v>45920.888860555555</v>
+        <v>45920.8888605556</v>
       </c>
       <c r="B105" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>18</v>
@@ -3819,50 +4578,50 @@
         <v>19</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="4">
-        <v>45920.89317834491</v>
+        <v>45920.8931783449</v>
       </c>
       <c r="B106" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
       <c r="A107" s="8">
-        <v>45920.89652592593</v>
+        <v>45920.8965259259</v>
       </c>
       <c r="B107" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>80</v>
@@ -3871,18 +4630,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="1:7">
       <c r="A108" s="4">
-        <v>45920.909847835646</v>
+        <v>45920.9098478356</v>
       </c>
       <c r="B108" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>78</v>
@@ -3894,15 +4653,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="1:7">
       <c r="A109" s="8">
-        <v>45920.91231122686</v>
+        <v>45920.9123112269</v>
       </c>
       <c r="B109" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>92</v>
@@ -3914,18 +4673,18 @@
         <v>36</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="4">
         <v>45920.9250884838</v>
       </c>
       <c r="B110" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>98</v>
@@ -3937,20 +4696,20 @@
         <v>80</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="8">
-        <v>45920.92718716435</v>
+        <v>45920.9271871644</v>
       </c>
       <c r="B111" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D111" s="13"/>
+        <v>258</v>
+      </c>
+      <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
         <v>35</v>
       </c>
@@ -3961,21 +4720,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="1:7">
       <c r="A112" s="4">
-        <v>45920.92724578704</v>
+        <v>45920.927245787</v>
       </c>
       <c r="B112" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>84</v>
@@ -3984,15 +4743,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="8">
-        <v>45920.927736956015</v>
+        <v>45920.927736956</v>
       </c>
       <c r="B113" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>26</v>
@@ -4007,18 +4766,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="1:7">
       <c r="A114" s="4">
-        <v>45920.92775190972</v>
+        <v>45920.9277519097</v>
       </c>
       <c r="B114" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>78</v>
@@ -4030,15 +4789,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:7">
       <c r="A115" s="8">
         <v>45920.9308768287</v>
       </c>
       <c r="B115" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>18</v>
@@ -4050,21 +4809,21 @@
         <v>23</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
       <c r="A116" s="4">
-        <v>45920.93190592593</v>
+        <v>45920.9319059259</v>
       </c>
       <c r="B116" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>78</v>
@@ -4073,17 +4832,17 @@
         <v>51</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
       <c r="A117" s="8">
-        <v>45920.935938738425</v>
+        <v>45920.9359387384</v>
       </c>
       <c r="B117" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C117" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
         <v>34</v>
       </c>
@@ -4097,38 +4856,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="4">
-        <v>45920.94004403935</v>
+        <v>45920.9400440394</v>
       </c>
       <c r="B118" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
       <c r="A119" s="8">
-        <v>45920.94019355324</v>
+        <v>45920.9401935532</v>
       </c>
       <c r="B119" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>126</v>
@@ -4143,15 +4902,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="1:7">
       <c r="A120" s="4">
-        <v>45920.94813859954</v>
+        <v>45920.9481385995</v>
       </c>
       <c r="B120" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>77</v>
@@ -4166,15 +4925,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="8">
-        <v>45920.949057777776</v>
+        <v>45920.9490577778</v>
       </c>
       <c r="B121" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>18</v>
@@ -4186,18 +4945,18 @@
         <v>143</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="4">
-        <v>45920.95011936342</v>
+        <v>45920.9501193634</v>
       </c>
       <c r="B122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>18</v>
@@ -4209,18 +4968,18 @@
         <v>143</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="8">
-        <v>45920.964470023144</v>
+        <v>45920.9644700231</v>
       </c>
       <c r="B123" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>18</v>
@@ -4232,18 +4991,18 @@
         <v>143</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
       <c r="A124" s="4">
         <v>45920.9656049537</v>
       </c>
       <c r="B124" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>141</v>
@@ -4252,21 +5011,21 @@
         <v>9</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="1:7">
       <c r="A125" s="8">
-        <v>45920.967393240746</v>
+        <v>45920.9673932407</v>
       </c>
       <c r="B125" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>45</v>
@@ -4281,38 +5040,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="4">
-        <v>45920.97220094907</v>
+        <v>45920.9722009491</v>
       </c>
       <c r="B126" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
       <c r="A127" s="8">
-        <v>45920.985506446756</v>
+        <v>45920.9855064468</v>
       </c>
       <c r="B127" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>48</v>
@@ -4327,56 +5086,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="1:7">
       <c r="A128" s="4">
-        <v>45920.98731892361</v>
+        <v>45920.9873189236</v>
       </c>
       <c r="B128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="14">
-        <v>45920.99299277778</v>
-      </c>
-      <c r="B129" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:7">
+      <c r="A129" s="12">
+        <v>45920.9929927778</v>
+      </c>
+      <c r="B129" s="13">
+        <v>0</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G129" s="17" t="s">
-        <v>286</v>
+      <c r="G129" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
+++ b/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8604"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="290">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Loxodonta africana, Elephas maximus, Nomadacris septemfasciata</t>
+  </si>
+  <si>
+    <t>st129344</t>
   </si>
   <si>
     <t>st132997</t>
@@ -908,7 +911,7 @@
     <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="181" formatCode="0&quot; / 4&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -919,6 +922,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1084,6 +1094,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1121,12 +1137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,70 +1568,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1633,77 +1640,80 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1736,6 +1746,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,7 +1819,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1820,7 +1833,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1834,7 +1847,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1848,7 +1861,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1862,7 +1875,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1876,7 +1889,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1890,7 +1903,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1927,7 +1940,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{5CEA28C5-4271-4118-BB3A-1C87AF4A4661}">
+    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{31ADF7C9-FAD1-4CC6-BC33-D61A501CDF43}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
@@ -2159,9 +2172,9 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -3882,7 +3895,9 @@
       <c r="B75" s="9">
         <v>3</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="D75" s="10" t="s">
         <v>77</v>
       </c>
@@ -3904,19 +3919,19 @@
         <v>0</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
@@ -3927,10 +3942,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>78</v>
@@ -3950,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>78</v>
@@ -3962,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
@@ -3973,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>69</v>
@@ -3996,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>98</v>
@@ -4005,10 +4020,10 @@
         <v>27</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:7">
@@ -4019,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>90</v>
@@ -4042,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>35</v>
@@ -4065,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>31</v>
@@ -4088,10 +4103,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>39</v>
@@ -4111,10 +4126,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -4134,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>8</v>
@@ -4157,10 +4172,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>27</v>
@@ -4169,7 +4184,7 @@
         <v>84</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
@@ -4180,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>83</v>
@@ -4204,7 +4219,7 @@
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>19</v>
@@ -4213,7 +4228,7 @@
         <v>80</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:7">
@@ -4224,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>19</v>
@@ -4236,7 +4251,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:7">
@@ -4247,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>18</v>
@@ -4256,10 +4271,10 @@
         <v>137</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:7">
@@ -4270,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>26</v>
@@ -4293,10 +4308,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>39</v>
@@ -4316,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>26</v>
@@ -4339,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>18</v>
@@ -4351,7 +4366,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
@@ -4362,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>19</v>
@@ -4374,7 +4389,7 @@
         <v>51</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:7">
@@ -4385,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>19</v>
@@ -4397,7 +4412,7 @@
         <v>84</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
@@ -4408,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -4420,7 +4435,7 @@
         <v>100</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:7">
@@ -4431,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>38</v>
@@ -4443,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:7">
@@ -4454,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>18</v>
@@ -4477,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>152</v>
@@ -4500,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>105</v>
@@ -4512,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
@@ -4523,19 +4538,19 @@
         <v>1</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
@@ -4546,10 +4561,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>78</v>
@@ -4558,7 +4573,7 @@
         <v>36</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
@@ -4569,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>18</v>
@@ -4578,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:7">
@@ -4592,19 +4607,19 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:7">
@@ -4615,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>80</v>
@@ -4638,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>78</v>
@@ -4661,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>92</v>
@@ -4673,7 +4688,7 @@
         <v>36</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
@@ -4684,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>98</v>
@@ -4696,7 +4711,7 @@
         <v>80</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
@@ -4707,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
@@ -4728,13 +4743,13 @@
         <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>84</v>
@@ -4751,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>26</v>
@@ -4774,10 +4789,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>78</v>
@@ -4797,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>18</v>
@@ -4809,7 +4824,7 @@
         <v>23</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
@@ -4820,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>78</v>
@@ -4832,7 +4847,7 @@
         <v>51</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
@@ -4864,19 +4879,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
@@ -4887,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>126</v>
@@ -4910,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>77</v>
@@ -4933,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>18</v>
@@ -4945,7 +4960,7 @@
         <v>143</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:7">
@@ -4956,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>18</v>
@@ -4968,7 +4983,7 @@
         <v>143</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:7">
@@ -4979,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>18</v>
@@ -4991,7 +5006,7 @@
         <v>143</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:7">
@@ -5002,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>141</v>
@@ -5011,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>28</v>
@@ -5025,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>45</v>
@@ -5048,19 +5063,19 @@
         <v>0</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:7">
@@ -5071,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>48</v>
@@ -5094,42 +5109,42 @@
         <v>0</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="12">
+      <c r="A129" s="13">
         <v>45920.9929927778</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="14">
         <v>0</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D129" s="14" t="s">
+      <c r="C129" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D129" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G129" s="15" t="s">
-        <v>288</v>
+      <c r="G129" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
+++ b/data/Тест по теме Симфизиологические связи (Ответы Биологи 2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="295">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -897,6 +897,21 @@
   </si>
   <si>
     <t>Saccharomyces cerevisiae, Cyanistes caeruleus, Nomadacris septemfasciata</t>
+  </si>
+  <si>
+    <t>st132182</t>
+  </si>
+  <si>
+    <t>st128980</t>
+  </si>
+  <si>
+    <t>st132421</t>
+  </si>
+  <si>
+    <t>st129519</t>
+  </si>
+  <si>
+    <t>st132303</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1955,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{31ADF7C9-FAD1-4CC6-BC33-D61A501CDF43}">
+    <tableStyle name="Ответы на форму (1)-style" pivot="0" count="3" xr9:uid="{7E99AC6B-A2E9-4B1E-902E-E4CD420E148A}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
@@ -1955,7 +1970,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:G129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:G128">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G128" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Отметка времени" dataDxfId="0"/>
     <tableColumn id="2" name="Баллы" dataDxfId="1"/>
@@ -2169,12 +2185,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -3659,1492 +3675,1509 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="8">
-        <v>45919.7520872454</v>
-      </c>
-      <c r="B65" s="9">
+      <c r="A65" s="4">
+        <v>45919.7792715972</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="8">
+        <v>45919.7864434722</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="4">
+        <v>45919.8204941782</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="8">
+        <v>45919.8463620023</v>
+      </c>
+      <c r="B68" s="9">
+        <v>4</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="4">
+        <v>45919.8463628935</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="8">
+        <v>45919.8701532755</v>
+      </c>
+      <c r="B70" s="9">
         <v>3</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="4">
+        <v>45919.8916039815</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="8">
+        <v>45919.9314229051</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="4">
+        <v>45919.9629404167</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="8">
+        <v>45920.1360347107</v>
+      </c>
+      <c r="B74" s="9">
+        <v>3</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="4">
+        <v>45920.2754053472</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="8">
+        <v>45920.4779124884</v>
+      </c>
+      <c r="B76" s="9">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="4">
+        <v>45920.5467253356</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="8">
+        <v>45920.5927036227</v>
+      </c>
+      <c r="B78" s="9">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="4">
+        <v>45920.6058741204</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="8">
+        <v>45920.6436506481</v>
+      </c>
+      <c r="B80" s="9">
+        <v>4</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="4">
+        <v>45920.6538844676</v>
+      </c>
+      <c r="B81" s="5">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="8">
+        <v>45920.6708389699</v>
+      </c>
+      <c r="B82" s="9">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="4">
+        <v>45920.6708666088</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="8">
+        <v>45920.7170893287</v>
+      </c>
+      <c r="B84" s="9">
+        <v>3</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="4">
+        <v>45920.7516894444</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:7">
+      <c r="A86" s="8">
+        <v>45920.7541710301</v>
+      </c>
+      <c r="B86" s="9">
+        <v>2</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="4">
+        <v>45920.7573968866</v>
+      </c>
+      <c r="B87" s="5">
+        <v>3</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="E87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="8">
+        <v>45920.7692716898</v>
+      </c>
+      <c r="B88" s="9">
+        <v>0</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="4">
+        <v>45920.7702813194</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="8">
+        <v>45920.7750753357</v>
+      </c>
+      <c r="B90" s="9">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="4">
+        <v>45920.8141304282</v>
+      </c>
+      <c r="B91" s="5">
+        <v>4</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="8">
+        <v>45920.8295215162</v>
+      </c>
+      <c r="B92" s="9">
+        <v>2</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="4">
+        <v>45920.8393139468</v>
+      </c>
+      <c r="B93" s="5">
+        <v>3</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="8">
+        <v>45920.8451803704</v>
+      </c>
+      <c r="B94" s="9">
+        <v>0</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="4">
+        <v>45920.8522594444</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
+      <c r="A96" s="8">
+        <v>45920.8565328125</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
+      <c r="A97" s="4">
+        <v>45920.8604510532</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="8">
+        <v>45920.8741870255</v>
+      </c>
+      <c r="B98" s="9">
+        <v>3</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="4">
+        <v>45920.8766940741</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="8">
+        <v>45920.8824991319</v>
+      </c>
+      <c r="B100" s="9">
+        <v>0</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="4">
+        <v>45920.8850278472</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="8">
+        <v>45920.8872067245</v>
+      </c>
+      <c r="B102" s="9">
+        <v>1</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
+      <c r="A103" s="4">
+        <v>45920.8873939583</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
+      <c r="A104" s="8">
+        <v>45920.8888605556</v>
+      </c>
+      <c r="B104" s="9">
+        <v>0</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="4">
+        <v>45920.8931783449</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
+      <c r="A106" s="8">
+        <v>45920.8965259259</v>
+      </c>
+      <c r="B106" s="9">
+        <v>0</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
+      <c r="A107" s="4">
+        <v>45920.9098478356</v>
+      </c>
+      <c r="B107" s="5">
+        <v>3</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="8">
+        <v>45920.9123112269</v>
+      </c>
+      <c r="B108" s="9">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="4">
+        <v>45920.9250884838</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
+      <c r="A110" s="8">
+        <v>45920.9271871644</v>
+      </c>
+      <c r="B110" s="9">
+        <v>3</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:7">
+      <c r="A111" s="4">
+        <v>45920.927245787</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="8">
+        <v>45920.927736956</v>
+      </c>
+      <c r="B112" s="9">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="4">
+        <v>45920.9277519097</v>
+      </c>
+      <c r="B113" s="5">
+        <v>3</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
+      <c r="A114" s="8">
+        <v>45920.9308768287</v>
+      </c>
+      <c r="B114" s="9">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="4">
+        <v>45920.9319059259</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
+      <c r="A116" s="8">
+        <v>45920.9359387384</v>
+      </c>
+      <c r="B116" s="9">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G116" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="4">
-        <v>45919.7792715972</v>
-      </c>
-      <c r="B66" s="5">
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="4">
+        <v>45920.9400440394</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="8">
+        <v>45920.9401935532</v>
+      </c>
+      <c r="B118" s="9">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
+      <c r="A119" s="4">
+        <v>45920.9481385995</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:7">
+      <c r="A120" s="8">
+        <v>45920.9490577778</v>
+      </c>
+      <c r="B120" s="9">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
+      <c r="A121" s="4">
+        <v>45920.9501193634</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="8">
+        <v>45920.9644700231</v>
+      </c>
+      <c r="B122" s="9">
+        <v>0</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
+      <c r="A123" s="4">
+        <v>45920.9656049537</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
+      <c r="A124" s="8">
+        <v>45920.9673932407</v>
+      </c>
+      <c r="B124" s="9">
+        <v>3</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:7">
+      <c r="A125" s="4">
+        <v>45920.9722009491</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:7">
+      <c r="A126" s="8">
+        <v>45920.9855064468</v>
+      </c>
+      <c r="B126" s="9">
         <v>4</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="8">
-        <v>45919.7864434722</v>
-      </c>
-      <c r="B67" s="9">
+      <c r="C126" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
+      <c r="A127" s="4">
+        <v>45920.9873189236</v>
+      </c>
+      <c r="B127" s="5">
         <v>0</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="4">
-        <v>45919.8204941782</v>
-      </c>
-      <c r="B68" s="5">
-        <v>2</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="8">
-        <v>45919.8463620023</v>
-      </c>
-      <c r="B69" s="9">
-        <v>4</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="4">
-        <v>45919.8463628935</v>
-      </c>
-      <c r="B70" s="5">
-        <v>4</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="8">
-        <v>45919.8701532755</v>
-      </c>
-      <c r="B71" s="9">
-        <v>3</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="4">
-        <v>45919.8916039815</v>
-      </c>
-      <c r="B72" s="5">
-        <v>2</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C127" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E127" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:7">
+      <c r="A128" s="13">
+        <v>45920.9929927778</v>
+      </c>
+      <c r="B128" s="14">
+        <v>0</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="8">
-        <v>45919.9314229051</v>
-      </c>
-      <c r="B73" s="9">
-        <v>0</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="4">
-        <v>45919.9629404167</v>
-      </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="8">
-        <v>45920.1360347107</v>
-      </c>
-      <c r="B75" s="9">
-        <v>3</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="4">
-        <v>45920.2754053472</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="8">
-        <v>45920.4779124884</v>
-      </c>
-      <c r="B77" s="9">
-        <v>3</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="4">
-        <v>45920.5467253356</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="8">
-        <v>45920.5927036227</v>
-      </c>
-      <c r="B79" s="9">
-        <v>3</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="4">
-        <v>45920.6058741204</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="8">
-        <v>45920.6436506481</v>
-      </c>
-      <c r="B81" s="9">
-        <v>4</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="4">
-        <v>45920.6538844676</v>
-      </c>
-      <c r="B82" s="5">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="8">
-        <v>45920.6708389699</v>
-      </c>
-      <c r="B83" s="9">
-        <v>3</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="4">
-        <v>45920.6708666088</v>
-      </c>
-      <c r="B84" s="5">
-        <v>3</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="8">
-        <v>45920.7170893287</v>
-      </c>
-      <c r="B85" s="9">
-        <v>3</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="4">
-        <v>45920.7516894444</v>
-      </c>
-      <c r="B86" s="5">
-        <v>2</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="8">
-        <v>45920.7541710301</v>
-      </c>
-      <c r="B87" s="9">
-        <v>2</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="4">
-        <v>45920.7573968866</v>
-      </c>
-      <c r="B88" s="5">
-        <v>3</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="8">
-        <v>45920.7692716898</v>
-      </c>
-      <c r="B89" s="9">
-        <v>0</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="4">
-        <v>45920.7702813194</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="8">
-        <v>45920.7750753357</v>
-      </c>
-      <c r="B91" s="9">
-        <v>0</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="4">
-        <v>45920.8141304282</v>
-      </c>
-      <c r="B92" s="5">
-        <v>4</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="8">
-        <v>45920.8295215162</v>
-      </c>
-      <c r="B93" s="9">
-        <v>2</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="F128" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="4">
-        <v>45920.8393139468</v>
-      </c>
-      <c r="B94" s="5">
-        <v>3</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="8">
-        <v>45920.8451803704</v>
-      </c>
-      <c r="B95" s="9">
-        <v>0</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="4">
-        <v>45920.8522594444</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="8">
-        <v>45920.8565328125</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="4">
-        <v>45920.8604510532</v>
-      </c>
-      <c r="B98" s="5">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="8">
-        <v>45920.8741870255</v>
-      </c>
-      <c r="B99" s="9">
-        <v>3</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="4">
-        <v>45920.8766940741</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="8">
-        <v>45920.8824991319</v>
-      </c>
-      <c r="B101" s="9">
-        <v>0</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="4">
-        <v>45920.8850278472</v>
-      </c>
-      <c r="B102" s="5">
-        <v>2</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="8">
-        <v>45920.8872067245</v>
-      </c>
-      <c r="B103" s="9">
-        <v>1</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="4">
-        <v>45920.8873939583</v>
-      </c>
-      <c r="B104" s="5">
-        <v>2</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="8">
-        <v>45920.8888605556</v>
-      </c>
-      <c r="B105" s="9">
-        <v>0</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="4">
-        <v>45920.8931783449</v>
-      </c>
-      <c r="B106" s="5">
-        <v>1</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="8">
-        <v>45920.8965259259</v>
-      </c>
-      <c r="B107" s="9">
-        <v>0</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="4">
-        <v>45920.9098478356</v>
-      </c>
-      <c r="B108" s="5">
-        <v>3</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="8">
-        <v>45920.9123112269</v>
-      </c>
-      <c r="B109" s="9">
-        <v>3</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:7">
-      <c r="A110" s="4">
-        <v>45920.9250884838</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="8">
-        <v>45920.9271871644</v>
-      </c>
-      <c r="B111" s="9">
-        <v>3</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="4">
-        <v>45920.927245787</v>
-      </c>
-      <c r="B112" s="5">
-        <v>2</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="8">
-        <v>45920.927736956</v>
-      </c>
-      <c r="B113" s="9">
-        <v>3</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="4">
-        <v>45920.9277519097</v>
-      </c>
-      <c r="B114" s="5">
-        <v>3</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="8">
-        <v>45920.9308768287</v>
-      </c>
-      <c r="B115" s="9">
-        <v>1</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="4">
-        <v>45920.9319059259</v>
-      </c>
-      <c r="B116" s="5">
-        <v>1</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="8">
-        <v>45920.9359387384</v>
-      </c>
-      <c r="B117" s="9">
-        <v>3</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="4">
-        <v>45920.9400440394</v>
-      </c>
-      <c r="B118" s="5">
-        <v>1</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="8">
-        <v>45920.9401935532</v>
-      </c>
-      <c r="B119" s="9">
-        <v>3</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:7">
-      <c r="A120" s="4">
-        <v>45920.9481385995</v>
-      </c>
-      <c r="B120" s="5">
-        <v>3</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="8">
-        <v>45920.9490577778</v>
-      </c>
-      <c r="B121" s="9">
-        <v>1</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="4">
-        <v>45920.9501193634</v>
-      </c>
-      <c r="B122" s="5">
-        <v>0</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="8">
-        <v>45920.9644700231</v>
-      </c>
-      <c r="B123" s="9">
-        <v>0</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="4">
-        <v>45920.9656049537</v>
-      </c>
-      <c r="B124" s="5">
-        <v>1</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="8">
-        <v>45920.9673932407</v>
-      </c>
-      <c r="B125" s="9">
-        <v>3</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="4">
-        <v>45920.9722009491</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="8">
-        <v>45920.9855064468</v>
-      </c>
-      <c r="B127" s="9">
-        <v>4</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="4">
-        <v>45920.9873189236</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="13">
-        <v>45920.9929927778</v>
-      </c>
+      <c r="G128" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="2:3">
       <c r="B129" s="14">
         <v>0</v>
       </c>
-      <c r="C129" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>289</v>
+      <c r="C129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="2:3">
+      <c r="B130" s="14">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:3">
+      <c r="B131" s="14">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="2:3">
+      <c r="B132" s="14">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="2:3">
+      <c r="B133" s="14">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
